--- a/数据更新记录-更新到191030.xlsx
+++ b/数据更新记录-更新到191030.xlsx
@@ -2045,11 +2045,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>登录散件，万圣氪金散件，万圣扭蛋套，氪金两套</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>notice,wardrobe,index</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录散件，万圣氪金散件，万圣扭蛋套，氪金两套</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2637,7 +2637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4035,10 +4035,10 @@
         <v>589</v>
       </c>
       <c r="C105" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>591</v>
       </c>
     </row>
   </sheetData>
